--- a/data/planning_2013.xlsx
+++ b/data/planning_2013.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="200">
   <si>
     <t>Opening</t>
   </si>
@@ -182,30 +182,6 @@
     <t>8 14 20 26</t>
   </si>
   <si>
-    <t>1 2 3 13 14 15</t>
-  </si>
-  <si>
-    <t>1 2 3</t>
-  </si>
-  <si>
-    <t>4 5 6 16 17 18</t>
-  </si>
-  <si>
-    <t>4 5 6</t>
-  </si>
-  <si>
-    <t>7 8 9</t>
-  </si>
-  <si>
-    <t>7 8 9 19 20 21</t>
-  </si>
-  <si>
-    <t>10 11 12</t>
-  </si>
-  <si>
-    <t>10 11 12 22 23 24</t>
-  </si>
-  <si>
     <t>13 14 15</t>
   </si>
   <si>
@@ -230,27 +206,15 @@
     <t>Bevers</t>
   </si>
   <si>
-    <t>Cindy</t>
-  </si>
-  <si>
-    <t>Imka</t>
-  </si>
-  <si>
     <t>Bl. Vogels</t>
   </si>
   <si>
-    <t>Bart</t>
-  </si>
-  <si>
     <t>Jeroen</t>
   </si>
   <si>
     <t>Dwergen</t>
   </si>
   <si>
-    <t>Wilfred</t>
-  </si>
-  <si>
     <t>Dyane</t>
   </si>
   <si>
@@ -296,9 +260,6 @@
     <t>Daphne</t>
   </si>
   <si>
-    <t>Annet</t>
-  </si>
-  <si>
     <t>Patrick</t>
   </si>
   <si>
@@ -359,12 +320,6 @@
     <t>Janneke</t>
   </si>
   <si>
-    <t>Gerrie Wij</t>
-  </si>
-  <si>
-    <t>Gerrie Wa</t>
-  </si>
-  <si>
     <t>Organisatie</t>
   </si>
   <si>
@@ -389,18 +344,12 @@
     <t>Erik</t>
   </si>
   <si>
-    <t>Peter</t>
-  </si>
-  <si>
     <t>Margot</t>
   </si>
   <si>
     <t>Joris</t>
   </si>
   <si>
-    <t>Régie</t>
-  </si>
-  <si>
     <t>Harm</t>
   </si>
   <si>
@@ -494,9 +443,6 @@
     <t>Uitleg + klaarmaken voor the Hunt</t>
   </si>
   <si>
-    <t>Sherow programma</t>
-  </si>
-  <si>
     <t>1 6 14 20</t>
   </si>
   <si>
@@ -624,6 +570,57 @@
   </si>
   <si>
     <t>Reuze ballen</t>
+  </si>
+  <si>
+    <t>sherpa</t>
+  </si>
+  <si>
+    <t>rowan</t>
+  </si>
+  <si>
+    <t>vogels</t>
+  </si>
+  <si>
+    <t>aantal</t>
+  </si>
+  <si>
+    <t>aanwezig</t>
+  </si>
+  <si>
+    <t>Nodig</t>
+  </si>
+  <si>
+    <t>Sherow programma 1+4+8+10</t>
+  </si>
+  <si>
+    <t>2 3 13 14 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 6 16 17 18</t>
+  </si>
+  <si>
+    <t>7 9</t>
+  </si>
+  <si>
+    <t>11 12</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>5 6</t>
+  </si>
+  <si>
+    <t>7 9 19 20 21</t>
+  </si>
+  <si>
+    <t>11 12 22 23 24</t>
+  </si>
+  <si>
+    <t>5 6 16 17 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 6</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1410,10 +1407,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1421,12 +1445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1446,26 +1464,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1476,41 +1491,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1542,17 +1524,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1866,8 +1869,8 @@
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,30 +1887,30 @@
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1929,10 +1932,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="138" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H3" s="138" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -1951,15 +1954,15 @@
       <c r="B4" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
       <c r="J4" s="6">
         <v>0.39583333333333331</v>
       </c>
@@ -1980,16 +1983,16 @@
       <c r="D5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="144" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="12">
         <v>3</v>
       </c>
-      <c r="G5" s="156" t="s">
+      <c r="G5" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="156" t="s">
+      <c r="H5" s="144" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="12">
@@ -2015,12 +2018,12 @@
       <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="156"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="12">
         <v>4</v>
       </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
       <c r="I6" s="12">
         <v>3</v>
       </c>
@@ -2044,14 +2047,14 @@
       <c r="D7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="156"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="156" t="s">
+      <c r="G7" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="143" t="s">
+      <c r="H7" s="152" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="12">
@@ -2077,12 +2080,12 @@
       <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="156"/>
+      <c r="E8" s="144"/>
       <c r="F8" s="12">
         <v>2</v>
       </c>
-      <c r="G8" s="156"/>
-      <c r="H8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="12">
         <v>1</v>
       </c>
@@ -2100,15 +2103,15 @@
       <c r="B9" s="6">
         <v>0.52083333333333404</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="159"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="147"/>
       <c r="J9" s="6">
         <v>0.5</v>
       </c>
@@ -2129,16 +2132,16 @@
       <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="156" t="s">
+      <c r="E10" s="144" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="156" t="s">
+      <c r="G10" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="156" t="s">
+      <c r="H10" s="144" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -2164,12 +2167,12 @@
       <c r="D11" s="12">
         <v>3</v>
       </c>
-      <c r="E11" s="156"/>
+      <c r="E11" s="144"/>
       <c r="F11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
       <c r="I11" s="12" t="s">
         <v>35</v>
       </c>
@@ -2193,14 +2196,14 @@
       <c r="D12" s="12">
         <v>2</v>
       </c>
-      <c r="E12" s="156"/>
+      <c r="E12" s="144"/>
       <c r="F12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="156" t="s">
+      <c r="G12" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="156" t="s">
+      <c r="H12" s="144" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -2226,12 +2229,12 @@
       <c r="D13" s="12">
         <v>1</v>
       </c>
-      <c r="E13" s="156"/>
+      <c r="E13" s="144"/>
       <c r="F13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
       <c r="I13" s="12" t="s">
         <v>39</v>
       </c>
@@ -2255,16 +2258,16 @@
       <c r="D14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="144" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="156" t="s">
+      <c r="G14" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="156" t="s">
+      <c r="H14" s="144" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="12" t="s">
@@ -2290,12 +2293,12 @@
       <c r="D15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="156"/>
+      <c r="E15" s="144"/>
       <c r="F15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
       <c r="I15" s="12" t="s">
         <v>28</v>
       </c>
@@ -2319,14 +2322,14 @@
       <c r="D16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="156"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="156" t="s">
+      <c r="G16" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="156" t="s">
+      <c r="H16" s="144" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -2352,12 +2355,12 @@
       <c r="D17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="156"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
       <c r="I17" s="12" t="s">
         <v>32</v>
       </c>
@@ -2375,15 +2378,15 @@
       <c r="B18" s="6">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
       <c r="J18" s="6">
         <v>0.6875</v>
       </c>
@@ -2398,13 +2401,13 @@
       <c r="B19" s="6">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
       <c r="J19" s="6">
         <v>0.70833333333333404</v>
       </c>
@@ -2419,15 +2422,15 @@
       <c r="B20" s="6">
         <v>0.75</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
       <c r="J20" s="6">
         <v>0.72916666666666696</v>
       </c>
@@ -2442,15 +2445,15 @@
       <c r="B21" s="6">
         <v>0.77083333333333304</v>
       </c>
-      <c r="C21" s="146" t="s">
+      <c r="C21" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
       <c r="J21" s="6">
         <v>0.75</v>
       </c>
@@ -2465,13 +2468,13 @@
       <c r="B22" s="6">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
       <c r="J22" s="6">
         <v>0.77083333333333404</v>
       </c>
@@ -2486,15 +2489,15 @@
       <c r="B23" s="6">
         <v>0.8125</v>
       </c>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
       <c r="J23" s="6">
         <v>0.79166666666666696</v>
       </c>
@@ -2509,13 +2512,13 @@
       <c r="B24" s="6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
       <c r="J24" s="6">
         <v>0.8125</v>
       </c>
@@ -2530,13 +2533,13 @@
       <c r="B25" s="6">
         <v>0.85416666666666696</v>
       </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
       <c r="J25" s="6">
         <v>0.83333333333333404</v>
       </c>
@@ -2551,13 +2554,13 @@
       <c r="B26" s="6">
         <v>0.875</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
       <c r="J26" s="6">
         <v>0.85416666666666696</v>
       </c>
@@ -2572,13 +2575,13 @@
       <c r="B27" s="6">
         <v>0.89583333333333304</v>
       </c>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
       <c r="J27" s="6">
         <v>0.875000000000001</v>
       </c>
@@ -2593,15 +2596,15 @@
       <c r="B28" s="6">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
       <c r="J28" s="6">
         <v>0.89583333333333404</v>
       </c>
@@ -2616,15 +2619,15 @@
       <c r="B29" s="6">
         <v>0.9375</v>
       </c>
-      <c r="C29" s="142" t="s">
+      <c r="C29" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
       <c r="J29" s="6">
         <v>0.91666666666666696</v>
       </c>
@@ -2639,13 +2642,13 @@
       <c r="B30" s="6">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
       <c r="J30" s="6">
         <v>0.937500000000001</v>
       </c>
@@ -2660,15 +2663,15 @@
       <c r="B31" s="6">
         <v>0.97916666666666696</v>
       </c>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
       <c r="J31" s="6">
         <v>0.95833333333333404</v>
       </c>
@@ -2683,13 +2686,13 @@
       <c r="B32" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
       <c r="J32" s="6">
         <v>0.97916666666666696</v>
       </c>
@@ -2700,13 +2703,13 @@
     <row r="33" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="145" t="s">
+      <c r="C33" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
@@ -2716,13 +2719,13 @@
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="141" t="s">
+      <c r="C34" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
       <c r="H34" s="1" t="s">
         <v>24</v>
       </c>
@@ -2735,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="142" t="s">
+      <c r="C35" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
       <c r="H35" s="6">
         <v>0</v>
       </c>
@@ -2750,11 +2753,11 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
@@ -2763,11 +2766,11 @@
       <c r="B37" s="6">
         <v>1.3125</v>
       </c>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6">
         <v>1.3125</v>
@@ -2780,11 +2783,11 @@
       <c r="B38" s="6">
         <v>1.3333333333333299</v>
       </c>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
       <c r="H38" s="6">
         <v>1.3125</v>
       </c>
@@ -2799,13 +2802,13 @@
       <c r="B39" s="6">
         <v>1.3541666666666701</v>
       </c>
-      <c r="C39" s="142" t="s">
+      <c r="C39" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
       <c r="H39" s="6">
         <v>1.3333333333333399</v>
       </c>
@@ -2820,13 +2823,13 @@
       <c r="B40" s="6">
         <v>1.375</v>
       </c>
-      <c r="C40" s="142" t="s">
+      <c r="C40" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
       <c r="H40" s="6">
         <v>1.3541666666666701</v>
       </c>
@@ -2841,13 +2844,13 @@
       <c r="B41" s="6">
         <v>1.3958333333333299</v>
       </c>
-      <c r="C41" s="147" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
+      <c r="C41" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
       <c r="H41" s="6">
         <v>1.375</v>
       </c>
@@ -2862,13 +2865,13 @@
       <c r="B42" s="6">
         <v>1.4166666666666701</v>
       </c>
-      <c r="C42" s="147" t="s">
+      <c r="C42" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
       <c r="H42" s="6">
         <v>1.3958333333333299</v>
       </c>
@@ -2883,11 +2886,11 @@
       <c r="B43" s="6">
         <v>1.4375</v>
       </c>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
       <c r="H43" s="6">
         <v>1.4166666666666701</v>
       </c>
@@ -2905,13 +2908,13 @@
         <v>12</v>
       </c>
       <c r="E44" s="88" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="138" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -2929,7 +2932,7 @@
       <c r="D45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="143" t="s">
+      <c r="E45" s="152" t="s">
         <v>45</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -2958,7 +2961,7 @@
       <c r="D46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="144"/>
+      <c r="E46" s="153"/>
       <c r="F46" s="4" t="s">
         <v>49</v>
       </c>
@@ -2985,7 +2988,7 @@
       <c r="D47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="151" t="s">
+      <c r="E47" s="158" t="s">
         <v>46</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -3014,7 +3017,7 @@
       <c r="D48" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="152"/>
+      <c r="E48" s="159"/>
       <c r="F48" s="83" t="s">
         <v>48</v>
       </c>
@@ -3035,13 +3038,13 @@
       <c r="B49" s="6">
         <v>1.5416666666666701</v>
       </c>
-      <c r="C49" s="148" t="s">
+      <c r="C49" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="150"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="157"/>
       <c r="H49" s="6">
         <v>1.5208333333333299</v>
       </c>
@@ -3062,7 +3065,7 @@
       <c r="D50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="143" t="s">
+      <c r="E50" s="152" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="4" t="s">
@@ -3091,7 +3094,7 @@
       <c r="D51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="144"/>
+      <c r="E51" s="153"/>
       <c r="F51" s="4" t="s">
         <v>44</v>
       </c>
@@ -3112,13 +3115,13 @@
       <c r="B52" s="6">
         <v>1.6041666666666701</v>
       </c>
-      <c r="C52" s="142" t="s">
+      <c r="C52" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
       <c r="H52" s="6">
         <v>1.5833333333333299</v>
       </c>
@@ -3133,16 +3136,16 @@
       <c r="B53" s="6">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
       <c r="H53" s="6">
         <v>1.6041666666666701</v>
       </c>
       <c r="I53" s="6">
-        <v>0.63541666666666663</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3152,15 +3155,15 @@
       <c r="B54" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C54" s="146" t="s">
+      <c r="C54" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
       <c r="H54" s="6">
-        <v>0.63541666666666663</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="I54" s="6">
         <v>0.64583333333333337</v>
@@ -3168,17 +3171,20 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C29:I30"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C31:I32"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C35:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C52:G53"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G43"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C4:I4"/>
@@ -3193,20 +3199,17 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C52:G53"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G43"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C31:I32"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C35:G38"/>
-    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C29:I30"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3223,8 +3226,8 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,15 +3245,15 @@
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
@@ -3261,15 +3264,15 @@
       <c r="B2" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
       <c r="J2" s="140" t="s">
         <v>24</v>
       </c>
@@ -3284,15 +3287,15 @@
       <c r="B3" s="7">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="162"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
       <c r="J3" s="7">
         <v>0.39583333333333331</v>
       </c>
@@ -3307,15 +3310,15 @@
       <c r="B4" s="7">
         <v>0.4375</v>
       </c>
-      <c r="C4" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
+      <c r="C4" s="143" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
       <c r="J4" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -3330,16 +3333,16 @@
       <c r="B5" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="188" t="s">
-        <v>157</v>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="162" t="s">
+        <v>189</v>
       </c>
       <c r="J5" s="7">
         <v>0.4375</v>
@@ -3355,13 +3358,13 @@
       <c r="B6" s="7">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="188"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="162"/>
       <c r="J6" s="85">
         <v>0.45833333333333298</v>
       </c>
@@ -3379,18 +3382,18 @@
         <v>12</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F7" s="93" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="86" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H7" s="139" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7" s="188"/>
+        <v>170</v>
+      </c>
+      <c r="I7" s="162"/>
       <c r="J7" s="85"/>
       <c r="K7" s="6"/>
     </row>
@@ -3402,24 +3405,24 @@
         <v>0.5</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="142" t="s">
-        <v>53</v>
+        <v>193</v>
+      </c>
+      <c r="E8" s="143" t="s">
+        <v>190</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="143" t="s">
         <v>55</v>
       </c>
+      <c r="G8" s="152" t="s">
+        <v>191</v>
+      </c>
       <c r="H8" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="188"/>
+        <v>192</v>
+      </c>
+      <c r="I8" s="162"/>
       <c r="J8" s="6">
         <v>0.47916666666666669</v>
       </c>
@@ -3435,20 +3438,20 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="142"/>
+        <v>192</v>
+      </c>
+      <c r="E9" s="143"/>
       <c r="F9" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="144"/>
+        <v>56</v>
+      </c>
+      <c r="G9" s="153"/>
       <c r="H9" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="188"/>
+        <v>193</v>
+      </c>
+      <c r="I9" s="162"/>
       <c r="J9" s="6">
         <v>0.5</v>
       </c>
@@ -3463,15 +3466,15 @@
       <c r="B10" s="7">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="188"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="162"/>
       <c r="J10" s="6">
         <v>0.52083333333333304</v>
       </c>
@@ -3487,24 +3490,24 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="156" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="E11" s="144" t="s">
+        <v>196</v>
       </c>
       <c r="F11" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="143" t="s">
-        <v>60</v>
+        <v>194</v>
+      </c>
+      <c r="G11" s="152" t="s">
+        <v>197</v>
       </c>
       <c r="H11" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="188"/>
+        <v>53</v>
+      </c>
+      <c r="I11" s="162"/>
       <c r="J11" s="6">
         <v>0.54166666666666696</v>
       </c>
@@ -3520,20 +3523,20 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="C12" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="144"/>
+      <c r="F12" s="90" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="153"/>
+      <c r="H12" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="156"/>
-      <c r="F12" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="144"/>
-      <c r="H12" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="188"/>
+      <c r="I12" s="162"/>
       <c r="J12" s="6">
         <v>0.56944444444444442</v>
       </c>
@@ -3549,24 +3552,24 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="142" t="s">
-        <v>55</v>
+        <v>194</v>
+      </c>
+      <c r="E13" s="143" t="s">
+        <v>198</v>
       </c>
       <c r="F13" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="143" t="s">
-        <v>58</v>
+        <v>193</v>
+      </c>
+      <c r="G13" s="152" t="s">
+        <v>196</v>
       </c>
       <c r="H13" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="188"/>
+        <v>56</v>
+      </c>
+      <c r="I13" s="162"/>
       <c r="J13" s="6">
         <v>0.59722222222222221</v>
       </c>
@@ -3582,20 +3585,20 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="142"/>
+        <v>56</v>
+      </c>
+      <c r="E14" s="143"/>
       <c r="F14" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="144"/>
+        <v>53</v>
+      </c>
+      <c r="G14" s="153"/>
       <c r="H14" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="188"/>
+        <v>194</v>
+      </c>
+      <c r="I14" s="162"/>
       <c r="J14" s="6">
         <v>0.61805555555555558</v>
       </c>
@@ -3611,24 +3614,24 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="D15" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="156" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="144" t="s">
+        <v>197</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="143" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G15" s="152" t="s">
+        <v>190</v>
       </c>
       <c r="H15" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="188"/>
+        <v>199</v>
+      </c>
+      <c r="I15" s="162"/>
       <c r="J15" s="6">
         <v>0.63888888888888895</v>
       </c>
@@ -3644,20 +3647,20 @@
         <v>0.6875</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="156"/>
+        <v>195</v>
+      </c>
+      <c r="E16" s="144"/>
       <c r="F16" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="144"/>
+        <v>192</v>
+      </c>
+      <c r="G16" s="153"/>
       <c r="H16" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="188"/>
+        <v>55</v>
+      </c>
+      <c r="I16" s="162"/>
       <c r="J16" s="6">
         <v>0.65972222222222221</v>
       </c>
@@ -3672,15 +3675,15 @@
       <c r="B17" s="7">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="188"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="162"/>
       <c r="J17" s="6">
         <v>0.6875</v>
       </c>
@@ -3695,13 +3698,13 @@
       <c r="B18" s="7">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="188"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="162"/>
       <c r="J18" s="6">
         <v>0.70833333333333404</v>
       </c>
@@ -3716,15 +3719,15 @@
       <c r="B19" s="7">
         <v>0.75</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
       <c r="J19" s="7">
         <v>0.72916666666666696</v>
       </c>
@@ -3739,15 +3742,15 @@
       <c r="B20" s="7">
         <v>0.77083333333333304</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
       <c r="J20" s="7">
         <v>0.75</v>
       </c>
@@ -3762,13 +3765,13 @@
       <c r="B21" s="7">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
       <c r="J21" s="7">
         <v>0.77083333333333404</v>
       </c>
@@ -3788,14 +3791,14 @@
       <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="160" t="s">
+      <c r="F22" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="186" t="s">
-        <v>189</v>
-      </c>
-      <c r="I22" s="186"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="169" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="169"/>
       <c r="J22" s="7"/>
       <c r="K22" s="6"/>
     </row>
@@ -3807,22 +3810,22 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="173" t="s">
-        <v>65</v>
+        <v>140</v>
+      </c>
+      <c r="D23" s="189" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="160" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="162"/>
-      <c r="H23" s="185" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="185"/>
+        <v>143</v>
+      </c>
+      <c r="F23" s="166" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="168"/>
+      <c r="H23" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="163"/>
       <c r="J23" s="7">
         <v>0.79166666666666663</v>
       </c>
@@ -3838,20 +3841,20 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="174"/>
+        <v>143</v>
+      </c>
+      <c r="D24" s="190"/>
       <c r="E24" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="162"/>
-      <c r="H24" s="185" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" s="185"/>
+        <v>140</v>
+      </c>
+      <c r="F24" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="168"/>
+      <c r="H24" s="163" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="163"/>
       <c r="J24" s="7">
         <v>0.80555555555555547</v>
       </c>
@@ -3867,22 +3870,22 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="173" t="s">
-        <v>162</v>
+        <v>141</v>
+      </c>
+      <c r="D25" s="189" t="s">
+        <v>144</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="160" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="162"/>
-      <c r="H25" s="185" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="185"/>
+        <v>142</v>
+      </c>
+      <c r="F25" s="166" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="168"/>
+      <c r="H25" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="163"/>
       <c r="J25" s="7">
         <v>0.81944444444444453</v>
       </c>
@@ -3898,20 +3901,20 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="174"/>
+        <v>142</v>
+      </c>
+      <c r="D26" s="190"/>
       <c r="E26" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="160" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="162"/>
-      <c r="H26" s="185" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="185"/>
+        <v>141</v>
+      </c>
+      <c r="F26" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="168"/>
+      <c r="H26" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="163"/>
       <c r="J26" s="7">
         <v>0.83333333333333337</v>
       </c>
@@ -3927,22 +3930,22 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="173" t="s">
-        <v>163</v>
+        <v>59</v>
+      </c>
+      <c r="D27" s="189" t="s">
+        <v>145</v>
       </c>
       <c r="E27" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="160" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="162"/>
-      <c r="H27" s="185" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="185"/>
+        <v>58</v>
+      </c>
+      <c r="F27" s="166" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="168"/>
+      <c r="H27" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="163"/>
       <c r="J27" s="7">
         <v>0.84722222222222221</v>
       </c>
@@ -3958,20 +3961,20 @@
         <v>0.875</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="174"/>
+        <v>58</v>
+      </c>
+      <c r="D28" s="190"/>
       <c r="E28" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="160" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="162"/>
-      <c r="H28" s="185" t="s">
-        <v>161</v>
-      </c>
-      <c r="I28" s="185"/>
+        <v>59</v>
+      </c>
+      <c r="F28" s="166" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="168"/>
+      <c r="H28" s="163" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="163"/>
       <c r="J28" s="7">
         <v>0.86111111111111116</v>
       </c>
@@ -3986,15 +3989,15 @@
       <c r="B29" s="7">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C29" s="160" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="162"/>
+      <c r="C29" s="166" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="168"/>
       <c r="J29" s="7">
         <v>0.875</v>
       </c>
@@ -4009,15 +4012,15 @@
       <c r="B30" s="7">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C30" s="163" t="s">
+      <c r="C30" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="165"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="182"/>
       <c r="J30" s="7">
         <v>0.89583333333333404</v>
       </c>
@@ -4032,13 +4035,13 @@
       <c r="B31" s="7">
         <v>0.9375</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="168"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="185"/>
       <c r="J31" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -4053,13 +4056,13 @@
       <c r="B32" s="7">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="168"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
       <c r="J32" s="7">
         <v>0.937500000000001</v>
       </c>
@@ -4074,13 +4077,13 @@
       <c r="B33" s="7">
         <v>0.97916666666666696</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="185"/>
       <c r="J33" s="7">
         <v>0.95833333333333404</v>
       </c>
@@ -4095,13 +4098,13 @@
       <c r="B34" s="7">
         <v>1</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="171"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="188"/>
       <c r="J34" s="7">
         <v>0.97916666666666696</v>
       </c>
@@ -4112,14 +4115,14 @@
     <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="175" t="s">
+      <c r="C35" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -4131,14 +4134,14 @@
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="172" t="s">
+      <c r="C36" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
       <c r="I36" s="1" t="s">
         <v>24</v>
       </c>
@@ -4151,14 +4154,14 @@
         <v>0</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="177"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="178"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="173"/>
       <c r="I37" s="84">
         <v>0</v>
       </c>
@@ -4167,12 +4170,12 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="181"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="176"/>
       <c r="I38" s="84"/>
       <c r="J38" s="7"/>
     </row>
@@ -4181,12 +4184,12 @@
       <c r="B39" s="7">
         <v>1.3125</v>
       </c>
-      <c r="C39" s="179"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="181"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="175"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="176"/>
       <c r="I39" s="84"/>
       <c r="J39" s="7">
         <v>1.3125</v>
@@ -4199,12 +4202,12 @@
       <c r="B40" s="7">
         <v>1.3333333333333299</v>
       </c>
-      <c r="C40" s="182"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="184"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="179"/>
       <c r="I40" s="84">
         <v>1.3125</v>
       </c>
@@ -4219,14 +4222,14 @@
       <c r="B41" s="7">
         <v>1.3541666666666701</v>
       </c>
-      <c r="C41" s="142" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
+      <c r="C41" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
       <c r="I41" s="84">
         <v>1.3333333333333399</v>
       </c>
@@ -4241,12 +4244,12 @@
       <c r="B42" s="7">
         <v>1.375</v>
       </c>
-      <c r="C42" s="142"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
       <c r="I42" s="84">
         <v>1.3541666666666701</v>
       </c>
@@ -4262,14 +4265,14 @@
       <c r="B43" s="7">
         <v>1.3958333333333299</v>
       </c>
-      <c r="C43" s="185" t="s">
+      <c r="C43" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
       <c r="I43" s="84">
         <v>1.375</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="86" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="I44" s="84"/>
       <c r="J44" s="7"/>
@@ -4309,22 +4312,22 @@
         <v>1.4166666666666701</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="D45" s="143" t="s">
-        <v>178</v>
+        <v>153</v>
+      </c>
+      <c r="D45" s="152" t="s">
+        <v>160</v>
       </c>
       <c r="E45" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="F45" s="143" t="s">
-        <v>177</v>
-      </c>
-      <c r="G45" s="143" t="s">
-        <v>173</v>
-      </c>
-      <c r="H45" s="143" t="s">
-        <v>172</v>
+        <v>146</v>
+      </c>
+      <c r="F45" s="152" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="152" t="s">
+        <v>154</v>
       </c>
       <c r="I45" s="84">
         <v>1.3958333333333299</v>
@@ -4341,15 +4344,15 @@
         <v>1.4375</v>
       </c>
       <c r="C46" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="144"/>
+        <v>146</v>
+      </c>
+      <c r="D46" s="153"/>
       <c r="E46" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
+        <v>153</v>
+      </c>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
       <c r="I46" s="84">
         <v>1.4166666666666701</v>
       </c>
@@ -4365,22 +4368,22 @@
         <v>1.4583333333333399</v>
       </c>
       <c r="C47" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="143" t="s">
-        <v>176</v>
+        <v>156</v>
+      </c>
+      <c r="D47" s="152" t="s">
+        <v>158</v>
       </c>
       <c r="E47" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" s="143" t="s">
-        <v>178</v>
-      </c>
-      <c r="G47" s="143" t="s">
-        <v>177</v>
-      </c>
-      <c r="H47" s="143" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="F47" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="152" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" s="152" t="s">
+        <v>155</v>
       </c>
       <c r="I47" s="84">
         <v>1.4375</v>
@@ -4397,15 +4400,15 @@
         <v>1.4791666666666701</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="144"/>
+        <v>147</v>
+      </c>
+      <c r="D48" s="153"/>
       <c r="E48" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
+        <v>156</v>
+      </c>
+      <c r="F48" s="153"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
       <c r="I48" s="84">
         <v>1.4583333333333299</v>
       </c>
@@ -4421,22 +4424,22 @@
         <v>1.5</v>
       </c>
       <c r="C49" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="143" t="s">
-        <v>172</v>
+        <v>148</v>
+      </c>
+      <c r="D49" s="152" t="s">
+        <v>154</v>
       </c>
       <c r="E49" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="143" t="s">
-        <v>176</v>
-      </c>
-      <c r="G49" s="143" t="s">
-        <v>178</v>
-      </c>
-      <c r="H49" s="143" t="s">
-        <v>177</v>
+        <v>149</v>
+      </c>
+      <c r="F49" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" s="152" t="s">
+        <v>159</v>
       </c>
       <c r="I49" s="84">
         <v>1.4791666666666701</v>
@@ -4453,15 +4456,15 @@
         <v>1.5208333333333399</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="144"/>
+        <v>149</v>
+      </c>
+      <c r="D50" s="153"/>
       <c r="E50" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
+        <v>148</v>
+      </c>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
       <c r="I50" s="84">
         <v>1.5</v>
       </c>
@@ -4476,14 +4479,14 @@
       <c r="B51" s="7">
         <v>1.5416666666666701</v>
       </c>
-      <c r="C51" s="157" t="s">
+      <c r="C51" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="159"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="147"/>
       <c r="I51" s="6">
         <v>1.5208333333333299</v>
       </c>
@@ -4499,22 +4502,22 @@
         <v>1.5625</v>
       </c>
       <c r="C52" s="135" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="143" t="s">
-        <v>173</v>
+        <v>157</v>
+      </c>
+      <c r="D52" s="152" t="s">
+        <v>155</v>
       </c>
       <c r="E52" s="135" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" s="143" t="s">
-        <v>172</v>
-      </c>
-      <c r="G52" s="143" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" s="143" t="s">
-        <v>178</v>
+        <v>150</v>
+      </c>
+      <c r="F52" s="152" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="152" t="s">
+        <v>160</v>
       </c>
       <c r="I52" s="6">
         <v>1.5416666666666701</v>
@@ -4531,15 +4534,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C53" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="144"/>
+        <v>150</v>
+      </c>
+      <c r="D53" s="153"/>
       <c r="E53" s="135" t="s">
-        <v>175</v>
-      </c>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
+        <v>157</v>
+      </c>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
       <c r="I53" s="137">
         <v>0.5625</v>
       </c>
@@ -4555,22 +4558,22 @@
         <v>1.6041666666666701</v>
       </c>
       <c r="C54" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="143" t="s">
-        <v>177</v>
+        <v>151</v>
+      </c>
+      <c r="D54" s="152" t="s">
+        <v>159</v>
       </c>
       <c r="E54" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="143" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" s="143" t="s">
-        <v>172</v>
-      </c>
-      <c r="H54" s="143" t="s">
-        <v>176</v>
+        <v>152</v>
+      </c>
+      <c r="F54" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="152" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="152" t="s">
+        <v>158</v>
       </c>
       <c r="I54" s="84">
         <v>1.5833333333333299</v>
@@ -4587,15 +4590,15 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C55" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="144"/>
+        <v>152</v>
+      </c>
+      <c r="D55" s="153"/>
       <c r="E55" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="F55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
+        <v>151</v>
+      </c>
+      <c r="F55" s="153"/>
+      <c r="G55" s="153"/>
+      <c r="H55" s="153"/>
       <c r="I55" s="84">
         <v>1.6041666666666701</v>
       </c>
@@ -4610,14 +4613,14 @@
       <c r="B56" s="7">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="C56" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="146"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
       <c r="I56" s="84">
         <v>0.63194444444444442</v>
       </c>
@@ -4627,38 +4630,22 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:H6"/>
-    <mergeCell ref="I5:I18"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C41:H42"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I21"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C30:I34"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="C56:H56"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="H47:H48"/>
@@ -4675,22 +4662,38 @@
     <mergeCell ref="D52:D53"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C30:I34"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I21"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:H6"/>
+    <mergeCell ref="I5:I18"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C41:H42"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4708,12 +4711,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK55"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="4" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
     <col min="6" max="51" width="3.28515625" customWidth="1"/>
@@ -5083,11 +5087,9 @@
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B3" s="105"/>
       <c r="C3" s="117"/>
       <c r="D3" s="118"/>
       <c r="E3" s="118"/>
@@ -5178,9 +5180,7 @@
     </row>
     <row r="4" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
-      <c r="B4" s="106" t="s">
-        <v>70</v>
-      </c>
+      <c r="B4" s="106"/>
       <c r="C4" s="121"/>
       <c r="D4" s="113"/>
       <c r="E4" s="113"/>
@@ -5271,11 +5271,9 @@
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B5" s="96"/>
       <c r="C5" s="121"/>
       <c r="D5" s="113"/>
       <c r="E5" s="113"/>
@@ -5366,9 +5364,7 @@
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
-      <c r="B6" s="99" t="s">
-        <v>112</v>
-      </c>
+      <c r="B6" s="99"/>
       <c r="C6" s="121"/>
       <c r="D6" s="113"/>
       <c r="E6" s="113"/>
@@ -5459,9 +5455,7 @@
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
-      <c r="B7" s="99" t="s">
-        <v>113</v>
-      </c>
+      <c r="B7" s="99"/>
       <c r="C7" s="121"/>
       <c r="D7" s="113"/>
       <c r="E7" s="113"/>
@@ -5552,9 +5546,7 @@
     </row>
     <row r="8" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
-      <c r="B8" s="98" t="s">
-        <v>73</v>
-      </c>
+      <c r="B8" s="98"/>
       <c r="C8" s="121"/>
       <c r="D8" s="113"/>
       <c r="E8" s="113"/>
@@ -5645,11 +5637,9 @@
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B9" s="96"/>
       <c r="C9" s="121"/>
       <c r="D9" s="113"/>
       <c r="E9" s="113"/>
@@ -5740,9 +5730,7 @@
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
-      <c r="B10" s="99" t="s">
-        <v>76</v>
-      </c>
+      <c r="B10" s="99"/>
       <c r="C10" s="121"/>
       <c r="D10" s="113"/>
       <c r="E10" s="113"/>
@@ -5833,9 +5821,7 @@
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
-      <c r="B11" s="99" t="s">
-        <v>77</v>
-      </c>
+      <c r="B11" s="99"/>
       <c r="C11" s="121"/>
       <c r="D11" s="113"/>
       <c r="E11" s="113"/>
@@ -5926,9 +5912,7 @@
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
-      <c r="B12" s="99" t="s">
-        <v>103</v>
-      </c>
+      <c r="B12" s="99"/>
       <c r="C12" s="121"/>
       <c r="D12" s="113"/>
       <c r="E12" s="113"/>
@@ -6019,9 +6003,7 @@
     </row>
     <row r="13" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
-      <c r="B13" s="98" t="s">
-        <v>110</v>
-      </c>
+      <c r="B13" s="98"/>
       <c r="C13" s="121"/>
       <c r="D13" s="113"/>
       <c r="E13" s="113"/>
@@ -6112,11 +6094,9 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="105" t="s">
-        <v>79</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B14" s="105"/>
       <c r="C14" s="121"/>
       <c r="D14" s="113"/>
       <c r="E14" s="113"/>
@@ -6207,9 +6187,7 @@
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
-      <c r="B15" s="29" t="s">
-        <v>131</v>
-      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="121"/>
       <c r="D15" s="113"/>
       <c r="E15" s="113"/>
@@ -6300,9 +6278,7 @@
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
-      <c r="B16" s="29" t="s">
-        <v>80</v>
-      </c>
+      <c r="B16" s="29"/>
       <c r="C16" s="121"/>
       <c r="D16" s="113"/>
       <c r="E16" s="113"/>
@@ -6393,9 +6369,7 @@
     </row>
     <row r="17" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
-      <c r="B17" s="106" t="s">
-        <v>81</v>
-      </c>
+      <c r="B17" s="106"/>
       <c r="C17" s="124"/>
       <c r="D17" s="114"/>
       <c r="E17" s="114"/>
@@ -6486,11 +6460,9 @@
     </row>
     <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="105" t="s">
-        <v>84</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B18" s="105"/>
       <c r="C18" s="121"/>
       <c r="D18" s="113"/>
       <c r="E18" s="113"/>
@@ -6581,9 +6553,7 @@
     </row>
     <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
-      <c r="B19" s="99" t="s">
-        <v>116</v>
-      </c>
+      <c r="B19" s="99"/>
       <c r="C19" s="121"/>
       <c r="D19" s="113"/>
       <c r="E19" s="113"/>
@@ -6674,9 +6644,7 @@
     </row>
     <row r="20" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="B20" s="106" t="s">
-        <v>85</v>
-      </c>
+      <c r="B20" s="106"/>
       <c r="C20" s="121"/>
       <c r="D20" s="113"/>
       <c r="E20" s="113"/>
@@ -6767,11 +6735,9 @@
     </row>
     <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="107" t="s">
-        <v>117</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B21" s="107"/>
       <c r="C21" s="125"/>
       <c r="D21" s="116"/>
       <c r="E21" s="116"/>
@@ -6862,9 +6828,7 @@
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
-      <c r="B22" s="102" t="s">
-        <v>118</v>
-      </c>
+      <c r="B22" s="102"/>
       <c r="C22" s="125"/>
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
@@ -6955,9 +6919,7 @@
     </row>
     <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
-      <c r="B23" s="108" t="s">
-        <v>146</v>
-      </c>
+      <c r="B23" s="108"/>
       <c r="C23" s="125"/>
       <c r="D23" s="116"/>
       <c r="E23" s="116"/>
@@ -7048,9 +7010,7 @@
     </row>
     <row r="24" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
-      <c r="B24" s="109" t="s">
-        <v>87</v>
-      </c>
+      <c r="B24" s="109"/>
       <c r="C24" s="121"/>
       <c r="D24" s="113"/>
       <c r="E24" s="113"/>
@@ -7141,11 +7101,9 @@
     </row>
     <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="105" t="s">
-        <v>89</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B25" s="105"/>
       <c r="C25" s="121"/>
       <c r="D25" s="113"/>
       <c r="E25" s="113"/>
@@ -7236,9 +7194,7 @@
     </row>
     <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
-      <c r="B26" s="99" t="s">
-        <v>104</v>
-      </c>
+      <c r="B26" s="99"/>
       <c r="C26" s="121"/>
       <c r="D26" s="113"/>
       <c r="E26" s="113"/>
@@ -7329,9 +7285,7 @@
     </row>
     <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
-      <c r="B27" s="29" t="s">
-        <v>90</v>
-      </c>
+      <c r="B27" s="29"/>
       <c r="C27" s="121"/>
       <c r="D27" s="113"/>
       <c r="E27" s="113"/>
@@ -7422,9 +7376,7 @@
     </row>
     <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
-      <c r="B28" s="29" t="s">
-        <v>91</v>
-      </c>
+      <c r="B28" s="29"/>
       <c r="C28" s="121"/>
       <c r="D28" s="113"/>
       <c r="E28" s="113"/>
@@ -7515,9 +7467,7 @@
     </row>
     <row r="29" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="44" t="s">
-        <v>92</v>
-      </c>
+      <c r="B29" s="44"/>
       <c r="C29" s="121"/>
       <c r="D29" s="113"/>
       <c r="E29" s="113"/>
@@ -7608,11 +7558,9 @@
     </row>
     <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>119</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B30" s="96"/>
       <c r="C30" s="121"/>
       <c r="D30" s="113"/>
       <c r="E30" s="113"/>
@@ -7703,9 +7651,7 @@
     </row>
     <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
-      <c r="B31" s="99" t="s">
-        <v>83</v>
-      </c>
+      <c r="B31" s="99"/>
       <c r="C31" s="121"/>
       <c r="D31" s="113"/>
       <c r="E31" s="113"/>
@@ -7796,9 +7742,7 @@
     </row>
     <row r="32" spans="1:89" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
-      <c r="B32" s="98" t="s">
-        <v>96</v>
-      </c>
+      <c r="B32" s="98"/>
       <c r="C32" s="121"/>
       <c r="D32" s="113"/>
       <c r="E32" s="113"/>
@@ -7889,11 +7833,9 @@
     </row>
     <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="97" t="s">
-        <v>111</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B33" s="97"/>
       <c r="C33" s="121"/>
       <c r="D33" s="113"/>
       <c r="E33" s="113"/>
@@ -7984,9 +7926,7 @@
     </row>
     <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
-      <c r="B34" s="100" t="s">
-        <v>122</v>
-      </c>
+      <c r="B34" s="100"/>
       <c r="C34" s="121"/>
       <c r="D34" s="113"/>
       <c r="E34" s="113"/>
@@ -8077,9 +8017,7 @@
     </row>
     <row r="35" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
-      <c r="B35" s="110" t="s">
-        <v>100</v>
-      </c>
+      <c r="B35" s="110"/>
       <c r="C35" s="121"/>
       <c r="D35" s="113"/>
       <c r="E35" s="113"/>
@@ -8170,11 +8108,9 @@
     </row>
     <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="105" t="s">
-        <v>96</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B36" s="105"/>
       <c r="C36" s="121"/>
       <c r="D36" s="113"/>
       <c r="E36" s="113"/>
@@ -8265,9 +8201,7 @@
     </row>
     <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
-      <c r="B37" s="29" t="s">
-        <v>97</v>
-      </c>
+      <c r="B37" s="29"/>
       <c r="C37" s="121"/>
       <c r="D37" s="113"/>
       <c r="E37" s="113"/>
@@ -8358,9 +8292,7 @@
     </row>
     <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
-      <c r="B38" s="99" t="s">
-        <v>123</v>
-      </c>
+      <c r="B38" s="99"/>
       <c r="C38" s="121"/>
       <c r="D38" s="113"/>
       <c r="E38" s="113"/>
@@ -8451,9 +8383,7 @@
     </row>
     <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
-      <c r="B39" s="29" t="s">
-        <v>124</v>
-      </c>
+      <c r="B39" s="29"/>
       <c r="C39" s="121"/>
       <c r="D39" s="113"/>
       <c r="E39" s="113"/>
@@ -8544,9 +8474,7 @@
     </row>
     <row r="40" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30"/>
-      <c r="B40" s="106" t="s">
-        <v>98</v>
-      </c>
+      <c r="B40" s="106"/>
       <c r="C40" s="121"/>
       <c r="D40" s="113"/>
       <c r="E40" s="113"/>
@@ -8637,11 +8565,9 @@
     </row>
     <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="105" t="s">
-        <v>100</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B41" s="105"/>
       <c r="C41" s="121"/>
       <c r="D41" s="113"/>
       <c r="E41" s="113"/>
@@ -8732,9 +8658,7 @@
     </row>
     <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
-      <c r="B42" s="99" t="s">
-        <v>101</v>
-      </c>
+      <c r="B42" s="99"/>
       <c r="C42" s="121"/>
       <c r="D42" s="113"/>
       <c r="E42" s="113"/>
@@ -8825,9 +8749,7 @@
     </row>
     <row r="43" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="30"/>
-      <c r="B43" s="106" t="s">
-        <v>121</v>
-      </c>
+      <c r="B43" s="106"/>
       <c r="C43" s="121"/>
       <c r="D43" s="113"/>
       <c r="E43" s="113"/>
@@ -8918,11 +8840,9 @@
     </row>
     <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="96" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B44" s="96"/>
       <c r="C44" s="121"/>
       <c r="D44" s="113"/>
       <c r="E44" s="113"/>
@@ -9013,9 +8933,7 @@
     </row>
     <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45" s="33"/>
-      <c r="B45" s="99" t="s">
-        <v>125</v>
-      </c>
+      <c r="B45" s="99"/>
       <c r="C45" s="121"/>
       <c r="D45" s="113"/>
       <c r="E45" s="113"/>
@@ -9106,9 +9024,7 @@
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
-      <c r="B46" s="99" t="s">
-        <v>126</v>
-      </c>
+      <c r="B46" s="99"/>
       <c r="C46" s="121"/>
       <c r="D46" s="113"/>
       <c r="E46" s="113"/>
@@ -9199,9 +9115,7 @@
     </row>
     <row r="47" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30"/>
-      <c r="B47" s="106" t="s">
-        <v>127</v>
-      </c>
+      <c r="B47" s="106"/>
       <c r="C47" s="121"/>
       <c r="D47" s="113"/>
       <c r="E47" s="113"/>
@@ -9292,11 +9206,9 @@
     </row>
     <row r="48" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>106</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B48" s="105"/>
       <c r="C48" s="121"/>
       <c r="D48" s="113"/>
       <c r="E48" s="113"/>
@@ -9387,9 +9299,7 @@
     </row>
     <row r="49" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
-      <c r="B49" s="29" t="s">
-        <v>73</v>
-      </c>
+      <c r="B49" s="29"/>
       <c r="C49" s="121"/>
       <c r="D49" s="113"/>
       <c r="E49" s="113"/>
@@ -9480,9 +9390,7 @@
     </row>
     <row r="50" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
-      <c r="B50" s="106" t="s">
-        <v>107</v>
-      </c>
+      <c r="B50" s="106"/>
       <c r="C50" s="121"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
@@ -9573,11 +9481,9 @@
     </row>
     <row r="51" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="105" t="s">
-        <v>109</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B51" s="105"/>
       <c r="C51" s="121"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
@@ -9668,9 +9574,7 @@
     </row>
     <row r="52" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A52" s="70"/>
-      <c r="B52" s="95" t="s">
-        <v>152</v>
-      </c>
+      <c r="B52" s="95"/>
       <c r="C52" s="121"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
@@ -9761,9 +9665,7 @@
     </row>
     <row r="53" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="42"/>
-      <c r="B53" s="106" t="s">
-        <v>132</v>
-      </c>
+      <c r="B53" s="106"/>
       <c r="C53" s="127"/>
       <c r="D53" s="128"/>
       <c r="E53" s="128"/>
@@ -10221,7 +10123,7 @@
   <dimension ref="A1:CK43"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AP17" sqref="AP17"/>
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10465,18 +10367,18 @@
         <v>20</v>
       </c>
       <c r="CJ2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="CK2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="96"/>
@@ -10535,13 +10437,13 @@
       <c r="BE3" s="119"/>
       <c r="BF3" s="120"/>
       <c r="CK3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="20" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="96"/>
@@ -10600,13 +10502,13 @@
       <c r="BE4" s="114"/>
       <c r="BF4" s="122"/>
       <c r="CK4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="20" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="99"/>
@@ -10665,13 +10567,13 @@
       <c r="BE5" s="114"/>
       <c r="BF5" s="122"/>
       <c r="CK5" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="23" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="98"/>
@@ -10730,15 +10632,15 @@
       <c r="BE6" s="114"/>
       <c r="BF6" s="122"/>
       <c r="CK6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="96"/>
@@ -10797,13 +10699,13 @@
       <c r="BE7" s="114"/>
       <c r="BF7" s="122"/>
       <c r="CK7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="27" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="99"/>
@@ -10865,7 +10767,7 @@
     <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="27" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="99"/>
@@ -10927,7 +10829,7 @@
     <row r="10" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="98"/>
@@ -10988,10 +10890,10 @@
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="96"/>
@@ -11053,7 +10955,7 @@
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="20" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="99"/>
@@ -11115,7 +11017,7 @@
     <row r="13" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="98"/>
@@ -11176,10 +11078,10 @@
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="101"/>
@@ -11241,7 +11143,7 @@
     <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="21" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="102"/>
@@ -11303,7 +11205,7 @@
     <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="66"/>
       <c r="B16" s="67" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="108"/>
@@ -11365,7 +11267,7 @@
     <row r="17" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="39" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="103"/>
@@ -11426,10 +11328,10 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="96"/>
@@ -11491,7 +11393,7 @@
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="20" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="99"/>
@@ -11553,7 +11455,7 @@
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="27" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="99"/>
@@ -11615,7 +11517,7 @@
     <row r="21" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="98"/>
@@ -11676,10 +11578,10 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="96"/>
@@ -11741,7 +11643,7 @@
     <row r="23" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="23" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="98"/>
@@ -11802,10 +11704,10 @@
     </row>
     <row r="24" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="104"/>
@@ -11866,10 +11768,10 @@
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="96"/>
@@ -11931,7 +11833,7 @@
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="27" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="99"/>
@@ -11993,7 +11895,7 @@
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="20" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="99"/>
@@ -12055,7 +11957,7 @@
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="27" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="99"/>
@@ -12117,7 +12019,7 @@
     <row r="29" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="98"/>
@@ -12178,10 +12080,10 @@
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="96"/>
@@ -12243,7 +12145,7 @@
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="20" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="99"/>
@@ -12305,7 +12207,7 @@
     <row r="32" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="98"/>
@@ -12366,10 +12268,10 @@
     </row>
     <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="96"/>
@@ -12431,7 +12333,7 @@
     <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="20" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="99"/>
@@ -12493,7 +12395,7 @@
     <row r="35" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="31" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="98"/>
@@ -12554,10 +12456,10 @@
     </row>
     <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="96"/>
@@ -12619,7 +12521,7 @@
     <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="27" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="99"/>
@@ -12681,7 +12583,7 @@
     <row r="38" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="31" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="98"/>
@@ -12742,10 +12644,10 @@
     </row>
     <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="96"/>
@@ -12807,7 +12709,7 @@
     <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" s="70"/>
       <c r="B40" s="71" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C40" s="72"/>
       <c r="D40" s="124"/>
@@ -12869,7 +12771,7 @@
     <row r="41" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="42"/>
       <c r="B41" s="31" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="131"/>
@@ -13160,10 +13062,10 @@
         <v>20</v>
       </c>
       <c r="CJ43" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="CK43" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -13175,7 +13077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -13197,30 +13099,30 @@
         <v>1</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50">
@@ -13229,7 +13131,7 @@
       <c r="D2" s="51"/>
       <c r="E2" s="13"/>
       <c r="F2" s="52" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
@@ -13237,7 +13139,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53">
@@ -13278,7 +13180,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -13318,7 +13220,7 @@
       <c r="D9" s="56"/>
       <c r="E9" s="13"/>
       <c r="F9" s="52" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
@@ -13337,7 +13239,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -13399,7 +13301,7 @@
       <c r="D16" s="59"/>
       <c r="E16" s="13"/>
       <c r="F16" s="52" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
@@ -13407,7 +13309,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -13442,7 +13344,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -13471,7 +13373,7 @@
       <c r="D22" s="56"/>
       <c r="E22" s="13"/>
       <c r="F22" s="52" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G22" s="53"/>
       <c r="H22" s="53">
@@ -13499,7 +13401,7 @@
       <c r="D24" s="56"/>
       <c r="E24" s="13"/>
       <c r="F24" s="52" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G24" s="53"/>
       <c r="H24" s="53">
@@ -13522,7 +13424,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -13574,370 +13476,778 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F3:G26"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="E1" s="185" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="141" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>144</v>
+        <v>126</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="63">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="63" t="s">
+        <v>60</v>
+      </c>
       <c r="C3" s="64"/>
-      <c r="E3" s="63">
+      <c r="D3" s="142">
         <v>1</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f>SUM(4-D3)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="63">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f>SUM(6-I3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="63" t="s">
+        <v>185</v>
+      </c>
       <c r="C4" s="64"/>
-      <c r="E4" s="63">
+      <c r="D4" s="142">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E30" si="0">SUM(4-D4)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="63">
         <v>2</v>
       </c>
-      <c r="F4" s="63"/>
       <c r="G4" s="63"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="63"/>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J26" si="1">SUM(4-I4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="63">
         <v>3</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="63" t="s">
+        <v>185</v>
+      </c>
       <c r="C5" s="64"/>
-      <c r="E5" s="63">
+      <c r="D5" s="142">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="63">
+        <v>3</v>
+      </c>
       <c r="G5" s="63"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="63"/>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="63">
         <v>4</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="63" t="s">
+        <v>185</v>
+      </c>
       <c r="C6" s="64"/>
-      <c r="E6" s="63">
+      <c r="D6" s="142">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="63">
         <v>4</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>SUM(6-I6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <v>5</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="64"/>
-      <c r="E7" s="63">
+      <c r="D7" s="142">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="63">
         <v>5</v>
       </c>
-      <c r="F7" s="63"/>
       <c r="G7" s="63"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="63"/>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="63">
         <v>6</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="64"/>
-      <c r="E8" s="63">
+      <c r="D8" s="142">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="63">
         <v>6</v>
       </c>
-      <c r="F8" s="63"/>
       <c r="G8" s="63"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="63"/>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="63">
         <v>7</v>
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
-      <c r="E9" s="63">
+      <c r="D9" s="142">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="63">
         <v>7</v>
       </c>
-      <c r="F9" s="63"/>
       <c r="G9" s="63"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="63"/>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="63">
         <v>8</v>
       </c>
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
-      <c r="E10" s="63">
+      <c r="D10" s="142">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="63">
         <v>8</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f>SUM(6-I10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="63">
         <v>9</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
-      <c r="E11" s="63">
+      <c r="D11" s="142">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="63">
         <v>9</v>
       </c>
-      <c r="F11" s="63"/>
       <c r="G11" s="63"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="63"/>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="63">
         <v>10</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="64"/>
-      <c r="E12" s="63">
+      <c r="D12" s="142">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="63">
         <v>10</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f>SUM(6-I12)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="63">
         <v>11</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="64"/>
-      <c r="E13" s="63">
+      <c r="D13" s="142">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13" s="63">
         <v>11</v>
       </c>
-      <c r="F13" s="63"/>
       <c r="G13" s="63"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="63"/>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="63">
         <v>12</v>
       </c>
       <c r="B14" s="63"/>
       <c r="C14" s="64"/>
-      <c r="E14" s="63">
+      <c r="D14" s="142">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="63">
         <v>12</v>
       </c>
-      <c r="F14" s="63"/>
       <c r="G14" s="63"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="63"/>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="63">
         <v>13</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="64"/>
-      <c r="E15" s="63">
+      <c r="D15" s="142">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="63">
         <v>13</v>
       </c>
-      <c r="F15" s="63"/>
       <c r="G15" s="63"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="63"/>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="63">
         <v>14</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="64"/>
-      <c r="E16" s="63">
+      <c r="D16" s="142">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="63">
         <v>14</v>
       </c>
-      <c r="F16" s="63"/>
       <c r="G16" s="63"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="63"/>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="63">
         <v>15</v>
       </c>
       <c r="B17" s="63"/>
       <c r="C17" s="64"/>
-      <c r="E17" s="63">
+      <c r="D17" s="142">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="63">
         <v>15</v>
       </c>
-      <c r="F17" s="63"/>
       <c r="G17" s="63"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="63"/>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="63">
         <v>16</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="64"/>
-      <c r="E18" s="63">
+      <c r="D18" s="142">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F18" s="63">
         <v>16</v>
       </c>
-      <c r="F18" s="63"/>
       <c r="G18" s="63"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="63"/>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="63">
         <v>17</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="64"/>
-      <c r="E19" s="63">
+      <c r="D19" s="142">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="63">
         <v>17</v>
       </c>
-      <c r="F19" s="63"/>
       <c r="G19" s="63"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="63"/>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="63">
         <v>18</v>
       </c>
       <c r="B20" s="63"/>
       <c r="C20" s="64"/>
-      <c r="E20" s="63">
+      <c r="D20" s="142">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F20" s="63">
         <v>18</v>
       </c>
-      <c r="F20" s="63"/>
       <c r="G20" s="63"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="63"/>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="63">
         <v>19</v>
       </c>
       <c r="B21" s="63"/>
       <c r="C21" s="64"/>
-      <c r="E21" s="63">
+      <c r="D21" s="142">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="63">
         <v>19</v>
       </c>
-      <c r="F21" s="63"/>
       <c r="G21" s="63"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="63"/>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="63">
         <v>20</v>
       </c>
       <c r="B22" s="63"/>
       <c r="C22" s="64"/>
-      <c r="E22" s="63">
+      <c r="D22" s="142">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="63">
         <v>20</v>
       </c>
-      <c r="F22" s="63"/>
       <c r="G22" s="63"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="63"/>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="63">
         <v>21</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="64"/>
-      <c r="E23" s="63">
+      <c r="D23" s="142">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F23" s="63">
         <v>21</v>
       </c>
-      <c r="F23" s="63"/>
       <c r="G23" s="63"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="63"/>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="63">
         <v>22</v>
       </c>
       <c r="B24" s="63"/>
       <c r="C24" s="64"/>
-      <c r="E24" s="63">
+      <c r="D24" s="142">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="63">
         <v>22</v>
       </c>
-      <c r="F24" s="63"/>
       <c r="G24" s="63"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="63"/>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="63">
         <v>23</v>
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="64"/>
-      <c r="E25" s="63">
+      <c r="D25" s="142">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="63">
         <v>23</v>
       </c>
-      <c r="F25" s="63"/>
       <c r="G25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="63"/>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="63">
         <v>24</v>
       </c>
       <c r="B26" s="63"/>
       <c r="C26" s="64"/>
-      <c r="E26" s="63">
+      <c r="D26" s="142">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F26" s="63">
         <v>24</v>
       </c>
-      <c r="F26" s="63"/>
       <c r="G26" s="63"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="63"/>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="63">
         <v>25</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="64"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="142">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f>SUM(J3:J26)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="63">
         <v>26</v>
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="64"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="142">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="63">
         <v>27</v>
       </c>
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="142">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>28</v>
       </c>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
+      <c r="D30" s="142">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="142">
+        <f>SUM(E3:E30)</f>
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13958,10 +14268,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="190" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="190"/>
+      <c r="A1" s="192" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="192"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="74"/>
@@ -13970,91 +14280,91 @@
     </row>
     <row r="3" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C5" s="68"/>
     </row>
     <row r="6" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C6" s="68"/>
     </row>
     <row r="7" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C7" s="68"/>
     </row>
     <row r="8" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C8" s="68"/>
     </row>
     <row r="9" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C9" s="68"/>
     </row>
     <row r="10" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C10" s="68"/>
     </row>
     <row r="11" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C11" s="77"/>
     </row>
     <row r="12" spans="1:3" s="76" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C12" s="77"/>
     </row>
@@ -14079,18 +14389,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -14101,7 +14411,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -14112,7 +14422,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -14123,7 +14433,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -14156,12 +14466,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
